--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_617.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_617.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32848-d79141-Reviews-Ramada_by_Wyndham_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>469</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-Ramada-By-Wyndham-Palmdale.h2702.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
